--- a/medicine/Pharmacie/Ivosidénib/Ivosidénib.xlsx
+++ b/medicine/Pharmacie/Ivosidénib/Ivosidénib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ivosid%C3%A9nib</t>
+          <t>Ivosidénib</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'ivosidénib est un anticancéreux inhibiteur de l'IDH1. Il a été approuvé pour la première fois en 2018 dans le traitement des leucémies aiguës myéloïdes (LAM).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ivosid%C3%A9nib</t>
+          <t>Ivosidénib</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,17 +524,89 @@
           <t>Données cliniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette molécule a été testée, avec une certaine efficacité, sur plusieurs cancers avec mutation sur le gène IDH1, dont les leucémies aiguës myéloblastiques[3], les gliomes[4] ou les cholangiocarcinomes[5].
-Indications
-L'AMM américaine a été octroyée initialement en 2018 par la FDA[6]. L'indication retenue est la LAM avec mutation de l'IDH1 sensible à l'ivosidénib dans certaines situations :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette molécule a été testée, avec une certaine efficacité, sur plusieurs cancers avec mutation sur le gène IDH1, dont les leucémies aiguës myéloblastiques, les gliomes ou les cholangiocarcinomes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ivosidénib</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ivosid%C3%A9nib</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Données cliniques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Indications</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'AMM américaine a été octroyée initialement en 2018 par la FDA. L'indication retenue est la LAM avec mutation de l'IDH1 sensible à l'ivosidénib dans certaines situations :
 traitement des patients adultes atteints de LAM en rechute ou réfractaire avec une mutation sensible ;
 traitement des patients adultes atteints d'une LAM nouvellement diagnostiquée, âgés de plus de 75 ans ou dont les comorbidités empêchent l'utilisation de chimiothérapie intensive.
-La mutation du gène de l'IDH1 apparaît dans 6 à 10 % des LAM[7].
-Elle peut être employée seule, ou en association avec de l'azacitidine[8].
-Effets indésirables
-Les effets indésirables décelés pendant les essais cliniques sont :
+La mutation du gène de l'IDH1 apparaît dans 6 à 10 % des LAM.
+Elle peut être employée seule, ou en association avec de l'azacitidine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ivosidénib</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ivosid%C3%A9nib</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Données cliniques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Effets indésirables</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les effets indésirables décelés pendant les essais cliniques sont :
 Allongement de l'intervalle QT
 Syndrome de Guillain-Barré</t>
         </is>
